--- a/TestExcel.xlsx
+++ b/TestExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanschubert/Documents/GitHub/testscripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1476461-AB70-0D4E-9FC5-690485B4D640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25643B00-6C50-BD41-B51E-B2E7DC58E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{6791CBAA-1B1D-1745-9702-01C355F57C3C}"/>
   </bookViews>
@@ -59,16 +59,16 @@
     <t>Test</t>
   </si>
   <si>
-    <t>"Some file path'</t>
-  </si>
-  <si>
-    <t>Valid file types'</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
     <t>Sam</t>
+  </si>
+  <si>
+    <t>Some file path</t>
+  </si>
+  <si>
+    <t>Valid file types</t>
   </si>
 </sst>
 </file>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9249B569-8711-1D40-8735-2F00181C4AB6}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,15 +480,15 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -497,15 +497,15 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -514,10 +514,10 @@
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
